--- a/第01组/项目计划表.xlsx
+++ b/第01组/项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>1、熟悉需求规格说明书；2、确定用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户群组管理&gt;）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成用例图设计，下一阶段开始编写用例描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成用例图设计，下一阶段开始编写用例描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -467,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -509,8 +521,12 @@
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -519,8 +535,12 @@
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -529,8 +549,12 @@
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
@@ -539,8 +563,12 @@
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
@@ -549,8 +577,12 @@
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
@@ -559,8 +591,12 @@
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
@@ -629,29 +665,35 @@
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A9:D10"/>
-    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="A19:D20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
